--- a/recipeCreationDMode.xlsx
+++ b/recipeCreationDMode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lattice\Desktop\ss\RecipeCreation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6680A0F7-A4C0-4A2F-A074-A89DB05AA8E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540D63A0-B59F-49FC-8A8F-16E0DEBEA1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="753" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="753" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModeDV0" sheetId="8" r:id="rId1"/>
@@ -1371,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06968273-B5FF-4DDF-9616-03EB7EEDE40B}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3634,7 +3634,7 @@
         <v>180</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
@@ -3703,7 +3703,7 @@
         <v>122</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
@@ -3791,8 +3791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353F7C62-A3A7-4A3F-974E-A86CAAC2D3EE}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6054,7 +6054,7 @@
         <v>180</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -6123,7 +6123,7 @@
         <v>122</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -6207,8 +6207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C0E1E2-8E33-4C28-A453-E37AE7274800}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8470,7 +8470,7 @@
         <v>180</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -8539,7 +8539,7 @@
         <v>122</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -8623,8 +8623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADB2F39-DB82-4262-9F4E-B007120C3A27}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10886,7 +10886,7 @@
         <v>180</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -10955,7 +10955,7 @@
         <v>122</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -11039,8 +11039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C0519B-248C-4784-B897-A264112D9591}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13302,7 +13302,7 @@
         <v>180</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
@@ -13371,7 +13371,7 @@
         <v>122</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
@@ -13455,8 +13455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC32AE66-08C9-4B02-8286-CAADD498358D}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15718,7 +15718,7 @@
         <v>180</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
@@ -15787,7 +15787,7 @@
         <v>122</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
@@ -15871,8 +15871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72D330A-C15D-4736-9D57-120BD7CA4F73}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18134,7 +18134,7 @@
         <v>180</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -18203,7 +18203,7 @@
         <v>122</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -18287,8 +18287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76415543-006F-4B46-BC42-8FFA82CC8F3B}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20550,7 +20550,7 @@
         <v>180</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -20619,7 +20619,7 @@
         <v>122</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -20703,8 +20703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8BB3A3-EDA0-4D0A-BAA2-47141E6EFECD}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -22966,7 +22966,7 @@
         <v>180</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -23035,7 +23035,7 @@
         <v>122</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -23119,8 +23119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E855714-9B39-4CC2-A9F7-DB85BBFA9633}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -25382,7 +25382,7 @@
         <v>180</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
@@ -25451,7 +25451,7 @@
         <v>122</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
@@ -25535,8 +25535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD4E8FB-4DF7-49D6-B392-65100978FC5F}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -27798,7 +27798,7 @@
         <v>180</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
@@ -27867,7 +27867,7 @@
         <v>122</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
@@ -27951,8 +27951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B96B47C-7483-4D41-904F-18015E95C5A0}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -30214,7 +30214,7 @@
         <v>180</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
@@ -30283,7 +30283,7 @@
         <v>122</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
